--- a/Collections/EURO/Slovakia/#EURO#Slovakia#Commemorative#[2009-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Slovakia/#EURO#Slovakia#Commemorative#[2009-present]#circulation_quality%varieties.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\Евро\Slovakia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\EURO\Slovakia\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -41,7 +41,8 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Münze Österreich (Vienna mint)</t>
+          <t>Mincovňa Kremnica
+(Slovakia mint (Kremnica))</t>
         </r>
       </text>
     </comment>
@@ -56,7 +57,8 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Münze Österreich (Vienna mint)</t>
+          <t>Mincovňa Kremnica
+(Slovakia mint (Kremnica))</t>
         </r>
       </text>
     </comment>
@@ -65,10 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="32">
-  <si>
-    <t>AT</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="39">
   <si>
     <t>Year</t>
   </si>
@@ -94,12 +93,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>50th Anniversary of the Austrian State Treaty</t>
-  </si>
-  <si>
-    <t>50th Anniversary - Signing of the Treaty of Rome</t>
-  </si>
-  <si>
     <t>Ten years of Economic and Monetary Union (EMU) and the birth of the euro</t>
   </si>
   <si>
@@ -109,12 +102,6 @@
     <t>30th Anniversary - European Union flag</t>
   </si>
   <si>
-    <t>200th Anniversary - National Bank</t>
-  </si>
-  <si>
-    <t>100th Anniversary - Austria</t>
-  </si>
-  <si>
     <t>№</t>
   </si>
   <si>
@@ -148,9 +135,6 @@
     <t>Low convenience single table with varieties and mintages and photos</t>
   </si>
   <si>
-    <t>Rev: old map of Europe</t>
-  </si>
-  <si>
     <t>Rev: new map of Europe</t>
   </si>
   <si>
@@ -161,6 +145,46 @@
   </si>
   <si>
     <t>High convenience set of tables table of actual coins with photos</t>
+  </si>
+  <si>
+    <t>SK</t>
+  </si>
+  <si>
+    <t>Obv: With mint logo 
+"MK"</t>
+  </si>
+  <si>
+    <t>1.000.000</t>
+  </si>
+  <si>
+    <t>2.500.000</t>
+  </si>
+  <si>
+    <t>20th Anniversary - Start of the Velvet Revolution</t>
+  </si>
+  <si>
+    <t>20th Anniversary - Foundation of the Visegrád Group</t>
+  </si>
+  <si>
+    <t>1150th Anniversary - Mission of Cyril and Methodius to Great Moravia</t>
+  </si>
+  <si>
+    <t>10th Anniversary - Accession to the European Union</t>
+  </si>
+  <si>
+    <t>200th Anniversary - Birth of Ľudovít Štúr</t>
+  </si>
+  <si>
+    <t>Slovak Presidency of the Council of the EU</t>
+  </si>
+  <si>
+    <t>550th Anniversary - University Istropolitana</t>
+  </si>
+  <si>
+    <t>25th Anniversary - Slovakia</t>
+  </si>
+  <si>
+    <t>100th Anniversary - Death of Milan Rastislav Štefánik</t>
   </si>
 </sst>
 </file>
@@ -354,9 +378,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="3" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -419,6 +440,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -426,7 +450,23 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -435,14 +475,6 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -465,9 +497,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="2"/>
-    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" name="№" dataDxfId="4"/>
+    <tableColumn id="2" name="Link" dataDxfId="3" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -736,409 +768,375 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="48.7265625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="24.7265625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="15" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="15" customWidth="1"/>
-    <col min="8" max="8" width="14.26953125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="5.42578125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="48.7109375" style="14" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="14" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="14" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="14" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="14" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>2009</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="11">
+        <v>0</v>
+      </c>
+      <c r="G3" s="12" t="str">
+        <f t="shared" ref="G3" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>2009</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="11">
+        <v>0</v>
+      </c>
+      <c r="G4" s="12" t="str">
+        <f t="shared" ref="G4:G15" si="1">IF(OR(AND(F4&gt;1,F4&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>2010</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="C5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>2011</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="11">
         <v>0</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G6" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>2012</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="11">
         <v>0</v>
       </c>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="8">
-        <v>2005</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="22" t="s">
+      <c r="G7" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>2013</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11">
-        <v>6880000</v>
-      </c>
-      <c r="F3" s="12">
+      <c r="E8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="11">
         <v>0</v>
       </c>
-      <c r="G3" s="13" t="str">
-        <f t="shared" ref="G3:G17" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="G8" s="12" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8">
-        <v>2006</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="13" t="str">
-        <f t="shared" si="0"/>
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>2014</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="11">
+        <v>0</v>
+      </c>
+      <c r="G9" s="12" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8">
-        <v>2007</v>
-      </c>
-      <c r="B5" s="9" t="s">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>2015</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="11">
+        <v>0</v>
+      </c>
+      <c r="G10" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>2015</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C11" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11">
-        <v>8905000</v>
-      </c>
-      <c r="F5" s="12">
+      <c r="E11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>2016</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="11">
         <v>0</v>
       </c>
-      <c r="G5" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="G12" s="12" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="8">
-        <v>2008</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="13" t="str">
-        <f t="shared" si="0"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>2017</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="11">
+        <v>1</v>
+      </c>
+      <c r="G13" s="12" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="8">
-        <v>2009</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="22" t="s">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>2018</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11">
-        <v>4910000</v>
-      </c>
-      <c r="F7" s="12">
+      <c r="F14" s="11">
+        <v>1</v>
+      </c>
+      <c r="G14" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>2019</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="11">
         <v>0</v>
       </c>
-      <c r="G7" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="8">
-        <v>2010</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="8">
-        <v>2011</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="8">
-        <v>2012</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11">
-        <v>11300000</v>
-      </c>
-      <c r="F10" s="12">
-        <v>0</v>
-      </c>
-      <c r="G10" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="8">
-        <v>2013</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="8">
-        <v>2014</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="8">
-        <v>2015</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11">
-        <v>2500000</v>
-      </c>
-      <c r="F13" s="12">
-        <v>0</v>
-      </c>
-      <c r="G13" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="8">
-        <v>2016</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11">
-        <v>16000000</v>
-      </c>
-      <c r="F14" s="12">
-        <v>0</v>
-      </c>
-      <c r="G14" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="8">
-        <v>2017</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="8">
-        <v>2018</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11">
-        <v>18100100</v>
-      </c>
-      <c r="F16" s="12">
-        <v>0</v>
-      </c>
-      <c r="G16" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="8">
-        <v>2019</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="G15" s="12" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1148,12 +1146,29 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3:F17">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F3:F4 F6:F15">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F17">
+  <conditionalFormatting sqref="F3:F4 F6:F15">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1176,91 +1191,91 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="20" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
+        <v>2</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
+        <v>3</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="21" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
+        <v>4</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="16">
-        <v>1</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="16">
-        <v>2</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="18" t="s">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
+        <v>5</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="16">
-        <v>3</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="18" t="s">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
+        <v>6</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="22" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="16">
-        <v>4</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="16">
-        <v>5</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="16">
-        <v>6</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Collections/EURO/Slovakia/#EURO#Slovakia#Commemorative#[2009-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Slovakia/#EURO#Slovakia#Commemorative#[2009-present]#circulation_quality%varieties.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\EURO\Slovakia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Slovakia\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -371,10 +371,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -429,6 +428,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -440,9 +442,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -768,29 +767,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="48.7109375" style="14" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" style="14" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="14" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="14" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="14" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="14" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.453125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="48.7265625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="24.7265625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="13" customWidth="1"/>
+    <col min="8" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -801,341 +799,339 @@
         <v>2</v>
       </c>
       <c r="D1" s="26"/>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="24"/>
       <c r="B2" s="24"/>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
         <v>2009</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <v>0</v>
       </c>
-      <c r="G3" s="12" t="str">
+      <c r="G3" s="11" t="str">
         <f t="shared" ref="G3" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
         <v>2009</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <v>0</v>
       </c>
-      <c r="G4" s="12" t="str">
+      <c r="G4" s="11" t="str">
         <f t="shared" ref="G4:G15" si="1">IF(OR(AND(F4&gt;1,F4&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
         <v>2010</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="12" t="str">
+      <c r="G5" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
         <v>2011</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>0</v>
       </c>
-      <c r="G6" s="12" t="str">
+      <c r="G6" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
         <v>2012</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <v>0</v>
       </c>
-      <c r="G7" s="12" t="str">
+      <c r="G7" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
         <v>2013</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <v>0</v>
       </c>
-      <c r="G8" s="12" t="str">
+      <c r="G8" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="6">
         <v>2014</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <v>0</v>
       </c>
-      <c r="G9" s="12" t="str">
+      <c r="G9" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
         <v>2015</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <v>0</v>
       </c>
-      <c r="G10" s="12" t="str">
+      <c r="G10" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+    </row>
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="6">
         <v>2015</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="10">
         <v>1</v>
       </c>
-      <c r="G11" s="12" t="str">
+      <c r="G11" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="6">
         <v>2016</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="10">
         <v>0</v>
       </c>
-      <c r="G12" s="12" t="str">
+      <c r="G12" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="6">
         <v>2017</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="10">
         <v>1</v>
       </c>
-      <c r="G13" s="12" t="str">
+      <c r="G13" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="6">
         <v>2018</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="10">
         <v>1</v>
       </c>
-      <c r="G14" s="12" t="str">
+      <c r="G14" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="6">
         <v>2019</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="10">
         <v>0</v>
       </c>
-      <c r="G15" s="12" t="str">
+      <c r="G15" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1194,87 +1190,87 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="14">
         <v>2</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="14">
         <v>3</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="14">
         <v>4</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="14">
         <v>5</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="14">
         <v>6</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="21" t="s">
         <v>25</v>
       </c>
     </row>

--- a/Collections/EURO/Slovakia/#EURO#Slovakia#Commemorative#[2009-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Slovakia/#EURO#Slovakia#Commemorative#[2009-present]#circulation_quality%varieties.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Slovakia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\EURO\Slovakia\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -451,6 +451,15 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF9BE5FF"/>
@@ -465,15 +474,6 @@
           <bgColor rgb="FF9BE5FF"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -496,9 +496,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="4"/>
-    <tableColumn id="2" name="Link" dataDxfId="3" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="2"/>
+    <tableColumn id="1" name="№" dataDxfId="2"/>
+    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -773,22 +773,22 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="48.7265625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="24.7265625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="13" customWidth="1"/>
-    <col min="8" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="5.42578125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="48.7109375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="13" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="13" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="13" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -807,7 +807,7 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24"/>
       <c r="B2" s="24"/>
       <c r="C2" s="4" t="s">
@@ -824,7 +824,7 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2009</v>
       </c>
@@ -848,7 +848,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2009</v>
       </c>
@@ -872,7 +872,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2010</v>
       </c>
@@ -896,7 +896,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>2011</v>
       </c>
@@ -913,14 +913,14 @@
         <v>28</v>
       </c>
       <c r="F6" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>2012</v>
       </c>
@@ -944,7 +944,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>2013</v>
       </c>
@@ -968,7 +968,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>2014</v>
       </c>
@@ -992,7 +992,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>2015</v>
       </c>
@@ -1009,14 +1009,14 @@
         <v>28</v>
       </c>
       <c r="F10" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>2015</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>2016</v>
       </c>
@@ -1057,14 +1057,14 @@
         <v>28</v>
       </c>
       <c r="F12" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>2017</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>2018</v>
       </c>
@@ -1105,14 +1105,14 @@
         <v>28</v>
       </c>
       <c r="F14" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14" s="11" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>Can exchange</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>2019</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>28</v>
       </c>
       <c r="F15" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="11" t="str">
         <f t="shared" si="1"/>
@@ -1143,7 +1143,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F4 F6:F15">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1160,7 +1160,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1190,14 +1190,14 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>11</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>6</v>
       </c>

--- a/Collections/EURO/Slovakia/#EURO#Slovakia#Commemorative#[2009-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Slovakia/#EURO#Slovakia#Commemorative#[2009-present]#circulation_quality%varieties.xlsx
@@ -773,7 +773,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -841,7 +841,7 @@
         <v>28</v>
       </c>
       <c r="F3" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="11" t="str">
         <f t="shared" ref="G3" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>

--- a/Collections/EURO/Slovakia/#EURO#Slovakia#Commemorative#[2009-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Slovakia/#EURO#Slovakia#Commemorative#[2009-present]#circulation_quality%varieties.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\EURO\Slovakia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Slovakia\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="40">
   <si>
     <t>Year</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t>100th Anniversary - Death of Milan Rastislav Štefánik</t>
+  </si>
+  <si>
+    <t>20 years of Slovakian membership in the OECD</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,15 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -496,9 +507,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="2"/>
-    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" name="№" dataDxfId="3"/>
+    <tableColumn id="2" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -767,28 +778,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="48.7109375" style="13" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" style="13" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="13" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="13" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="13" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.453125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="48.7265625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="24.7265625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="13" customWidth="1"/>
+    <col min="8" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -807,7 +818,7 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="24"/>
       <c r="B2" s="24"/>
       <c r="C2" s="4" t="s">
@@ -824,7 +835,7 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2009</v>
       </c>
@@ -848,7 +859,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>2009</v>
       </c>
@@ -872,7 +883,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>2010</v>
       </c>
@@ -896,7 +907,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>2011</v>
       </c>
@@ -920,7 +931,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>2012</v>
       </c>
@@ -944,7 +955,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>2013</v>
       </c>
@@ -968,7 +979,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>2014</v>
       </c>
@@ -992,7 +1003,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>2015</v>
       </c>
@@ -1016,7 +1027,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>2015</v>
       </c>
@@ -1040,7 +1051,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>2016</v>
       </c>
@@ -1064,7 +1075,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>2017</v>
       </c>
@@ -1088,7 +1099,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>2018</v>
       </c>
@@ -1112,7 +1123,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>2019</v>
       </c>
@@ -1133,6 +1144,30 @@
       </c>
       <c r="G15" s="11" t="str">
         <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="10">
+        <v>0</v>
+      </c>
+      <c r="G16" s="11" t="str">
+        <f t="shared" ref="G16" si="2">IF(OR(AND(F16&gt;1,F16&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -1143,11 +1178,28 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F4 F6:F15">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F4 F6:F15">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1159,12 +1211,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
+  <conditionalFormatting sqref="F16">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F16))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
+  <conditionalFormatting sqref="F16">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1190,14 +1242,14 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>11</v>
       </c>
@@ -1208,7 +1260,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -1219,7 +1271,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -1230,7 +1282,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -1241,7 +1293,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -1252,7 +1304,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -1263,7 +1315,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>6</v>
       </c>

--- a/Collections/EURO/Slovakia/#EURO#Slovakia#Commemorative#[2009-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Slovakia/#EURO#Slovakia#Commemorative#[2009-present]#circulation_quality%varieties.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Slovakia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\EURO\Slovakia\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6710F213-1BB9-4624-BD54-7B24E538C8B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
     <sheet name="Links" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,12 +26,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -46,7 +47,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -193,7 +194,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -450,17 +451,9 @@
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -469,6 +462,14 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -500,16 +501,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
-  <autoFilter ref="A1:C7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="3"/>
-    <tableColumn id="2" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -777,29 +778,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="48.7265625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="24.7265625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="13" customWidth="1"/>
-    <col min="8" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="5.42578125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="48.7109375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="13" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="13" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="13" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -818,7 +819,7 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24"/>
       <c r="B2" s="24"/>
       <c r="C2" s="4" t="s">
@@ -835,7 +836,7 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2009</v>
       </c>
@@ -859,7 +860,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2009</v>
       </c>
@@ -883,7 +884,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2010</v>
       </c>
@@ -907,7 +908,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>2011</v>
       </c>
@@ -931,7 +932,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>2012</v>
       </c>
@@ -955,7 +956,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>2013</v>
       </c>
@@ -979,7 +980,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>2014</v>
       </c>
@@ -1003,7 +1004,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>2015</v>
       </c>
@@ -1027,7 +1028,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>2015</v>
       </c>
@@ -1051,7 +1052,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>2016</v>
       </c>
@@ -1075,7 +1076,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>2017</v>
       </c>
@@ -1099,7 +1100,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>2018</v>
       </c>
@@ -1123,7 +1124,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>2019</v>
       </c>
@@ -1147,7 +1148,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>2020</v>
       </c>
@@ -1212,7 +1213,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1235,21 +1236,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>11</v>
       </c>
@@ -1260,7 +1261,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -1271,7 +1272,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -1282,7 +1283,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -1293,7 +1294,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -1304,7 +1305,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -1315,7 +1316,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -1328,12 +1329,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2" location="svodka"/>
-    <hyperlink ref="B5" r:id="rId3"/>
-    <hyperlink ref="B2" r:id="rId4"/>
-    <hyperlink ref="B7" r:id="rId5"/>
-    <hyperlink ref="B6" r:id="rId6"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" location="svodka" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B2" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="B6" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>

--- a/Collections/EURO/Slovakia/#EURO#Slovakia#Commemorative#[2009-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Slovakia/#EURO#Slovakia#Commemorative#[2009-present]#circulation_quality%varieties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\EURO\Slovakia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Slovakia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6710F213-1BB9-4624-BD54-7B24E538C8B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CFCF89-7C65-488B-ABB3-22F322036D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -68,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="45">
   <si>
     <t>Year</t>
   </si>
@@ -189,13 +198,28 @@
   </si>
   <si>
     <t>20 years of Slovakian membership in the OECD</t>
+  </si>
+  <si>
+    <t>100th Anniversary - Birth of Alexander Dubček</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300th Anniversary - Construction of the First Atmospheric Steam Engine </t>
+  </si>
+  <si>
+    <t>35th Anniversary - Erasmus Programme</t>
+  </si>
+  <si>
+    <t>100th Anniversary - First Blood Transfusion in Slovakia</t>
+  </si>
+  <si>
+    <t>200th Anniversary - Regular Start of Horse-drawn Express Mail Vienna - Bratislava</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -251,6 +275,10 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="7">
@@ -453,7 +481,31 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -508,9 +560,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="4" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -779,28 +831,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="48.7109375" style="13" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" style="13" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="13" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="13" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="13" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.453125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="48.7265625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="24.7265625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="13" customWidth="1"/>
+    <col min="8" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -819,7 +871,7 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="24"/>
       <c r="B2" s="24"/>
       <c r="C2" s="4" t="s">
@@ -836,7 +888,7 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2009</v>
       </c>
@@ -860,7 +912,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>2009</v>
       </c>
@@ -877,14 +929,14 @@
         <v>29</v>
       </c>
       <c r="F4" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="11" t="str">
         <f t="shared" ref="G4:G15" si="1">IF(OR(AND(F4&gt;1,F4&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>2010</v>
       </c>
@@ -908,7 +960,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>2011</v>
       </c>
@@ -932,7 +984,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>2012</v>
       </c>
@@ -949,14 +1001,14 @@
         <v>28</v>
       </c>
       <c r="F7" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>2013</v>
       </c>
@@ -973,14 +1025,14 @@
         <v>28</v>
       </c>
       <c r="F8" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>2014</v>
       </c>
@@ -997,14 +1049,14 @@
         <v>28</v>
       </c>
       <c r="F9" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>2015</v>
       </c>
@@ -1028,7 +1080,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>2015</v>
       </c>
@@ -1052,7 +1104,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>2016</v>
       </c>
@@ -1076,7 +1128,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>2017</v>
       </c>
@@ -1100,7 +1152,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>2018</v>
       </c>
@@ -1124,7 +1176,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>2019</v>
       </c>
@@ -1148,7 +1200,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>2020</v>
       </c>
@@ -1169,6 +1221,126 @@
       </c>
       <c r="G16" s="11" t="str">
         <f t="shared" ref="G16" si="2">IF(OR(AND(F16&gt;1,F16&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="10">
+        <v>0</v>
+      </c>
+      <c r="G17" s="11" t="str">
+        <f t="shared" ref="G17" si="3">IF(OR(AND(F17&gt;1,F17&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="10">
+        <v>0</v>
+      </c>
+      <c r="G18" s="11" t="str">
+        <f t="shared" ref="G18" si="4">IF(OR(AND(F18&gt;1,F18&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="10">
+        <v>0</v>
+      </c>
+      <c r="G19" s="11" t="str">
+        <f t="shared" ref="G19:G21" si="5">IF(OR(AND(F19&gt;1,F19&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="10">
+        <v>0</v>
+      </c>
+      <c r="G20" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="10">
+        <v>0</v>
+      </c>
+      <c r="G21" s="11" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -1178,12 +1350,64 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F4 F6:F15">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F4 F6:F15">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16:F18">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16:F18">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1195,12 +1419,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
+  <conditionalFormatting sqref="F20">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1212,12 +1436,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F16))))</formula>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
+  <conditionalFormatting sqref="F21">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1240,17 +1464,17 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>11</v>
       </c>
@@ -1261,7 +1485,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -1272,7 +1496,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -1283,7 +1507,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -1294,7 +1518,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -1305,7 +1529,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -1316,7 +1540,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>6</v>
       </c>

--- a/Collections/EURO/Slovakia/#EURO#Slovakia#Commemorative#[2009-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Slovakia/#EURO#Slovakia#Commemorative#[2009-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Slovakia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CFCF89-7C65-488B-ABB3-22F322036D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7D9263-24FA-4F4A-A47B-D59F7B190C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="28800" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -82,9 +82,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Series</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -213,6 +210,9 @@
   </si>
   <si>
     <t>200th Anniversary - Regular Start of Horse-drawn Express Mail Vienna - Bratislava</t>
+  </si>
+  <si>
+    <t>Subject</t>
   </si>
 </sst>
 </file>
@@ -483,6 +483,15 @@
   </cellStyles>
   <dxfs count="9">
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF9BE5FF"/>
@@ -505,15 +514,6 @@
           <bgColor rgb="FF9BE5FF"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -560,9 +560,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="4" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -837,7 +837,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -857,17 +857,17 @@
         <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="25" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="26"/>
       <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="22" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>4</v>
       </c>
       <c r="G1" s="3"/>
     </row>
@@ -875,16 +875,16 @@
       <c r="A2" s="24"/>
       <c r="B2" s="24"/>
       <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" s="3"/>
     </row>
@@ -893,16 +893,16 @@
         <v>2009</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3" s="10">
         <v>1</v>
@@ -917,16 +917,16 @@
         <v>2009</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" s="10">
         <v>1</v>
@@ -941,19 +941,19 @@
         <v>2010</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G5" s="11" t="str">
         <f t="shared" si="1"/>
@@ -965,16 +965,16 @@
         <v>2011</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F6" s="10">
         <v>1</v>
@@ -989,16 +989,16 @@
         <v>2012</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F7" s="10">
         <v>1</v>
@@ -1013,16 +1013,16 @@
         <v>2013</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F8" s="10">
         <v>1</v>
@@ -1037,16 +1037,16 @@
         <v>2014</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F9" s="10">
         <v>1</v>
@@ -1061,16 +1061,16 @@
         <v>2015</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10" s="10">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>2015</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F11" s="10">
         <v>1</v>
@@ -1109,16 +1109,16 @@
         <v>2016</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F12" s="10">
         <v>1</v>
@@ -1133,16 +1133,16 @@
         <v>2017</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F13" s="10">
         <v>1</v>
@@ -1157,16 +1157,16 @@
         <v>2018</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F14" s="10">
         <v>2</v>
@@ -1181,16 +1181,16 @@
         <v>2019</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F15" s="10">
         <v>1</v>
@@ -1205,16 +1205,16 @@
         <v>2020</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F16" s="10">
         <v>0</v>
@@ -1229,16 +1229,16 @@
         <v>2021</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F17" s="10">
         <v>0</v>
@@ -1253,16 +1253,16 @@
         <v>2022</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F18" s="10">
         <v>0</v>
@@ -1277,16 +1277,16 @@
         <v>2022</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F19" s="10">
         <v>0</v>
@@ -1301,16 +1301,16 @@
         <v>2023</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F20" s="10">
         <v>0</v>
@@ -1325,16 +1325,16 @@
         <v>2023</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F21" s="10">
         <v>0</v>
@@ -1403,7 +1403,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1420,7 +1420,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1437,7 +1437,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1476,13 +1476,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>15</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1490,10 +1490,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1501,10 +1501,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1512,10 +1512,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1523,10 +1523,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1534,10 +1534,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1545,10 +1545,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
